--- a/data_year/zb/固定资产投资和房地产/按行业分集体控股固定资产投资(不含农户)增长情况（2018-）.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按行业分集体控股固定资产投资(不含农户)增长情况（2018-）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK4"/>
+  <dimension ref="A1:DK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2012,6 +2012,335 @@
         <v>-47</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-58.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-77.09999999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-37.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-61.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-86.5</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-33.1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-40.3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-73.3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-34.3</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-68.2</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-29.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-94.40000000000001</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-42.9</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-26.6</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-30.4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-53.2</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>-47.5</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>-25.9</v>
+      </c>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>-34.5</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>-44.6</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>-66.90000000000001</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>-17.4</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>28</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>-64.5</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-89.59999999999999</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
